--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl5</t>
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.50139523998359</v>
+        <v>1.614534333333333</v>
       </c>
       <c r="H2">
-        <v>3.50139523998359</v>
+        <v>4.843603</v>
       </c>
       <c r="I2">
-        <v>0.2897148144989093</v>
+        <v>0.10197989862822</v>
       </c>
       <c r="J2">
-        <v>0.2897148144989093</v>
+        <v>0.10197989862822</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N2">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O2">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P2">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q2">
-        <v>7.657076427849237</v>
+        <v>5.552234496996555</v>
       </c>
       <c r="R2">
-        <v>7.657076427849237</v>
+        <v>49.970110472969</v>
       </c>
       <c r="S2">
-        <v>0.01187552332413539</v>
+        <v>0.005940759797059501</v>
       </c>
       <c r="T2">
-        <v>0.01187552332413539</v>
+        <v>0.005940759797059502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.50139523998359</v>
+        <v>1.614534333333333</v>
       </c>
       <c r="H3">
-        <v>3.50139523998359</v>
+        <v>4.843603</v>
       </c>
       <c r="I3">
-        <v>0.2897148144989093</v>
+        <v>0.10197989862822</v>
       </c>
       <c r="J3">
-        <v>0.2897148144989093</v>
+        <v>0.10197989862822</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N3">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P3">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q3">
-        <v>36.18722919344062</v>
+        <v>16.76509363892367</v>
       </c>
       <c r="R3">
-        <v>36.18722919344062</v>
+        <v>150.885842750313</v>
       </c>
       <c r="S3">
-        <v>0.05612354641773448</v>
+        <v>0.01793825428985974</v>
       </c>
       <c r="T3">
-        <v>0.05612354641773448</v>
+        <v>0.01793825428985974</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.50139523998359</v>
+        <v>1.614534333333333</v>
       </c>
       <c r="H4">
-        <v>3.50139523998359</v>
+        <v>4.843603</v>
       </c>
       <c r="I4">
-        <v>0.2897148144989093</v>
+        <v>0.10197989862822</v>
       </c>
       <c r="J4">
-        <v>0.2897148144989093</v>
+        <v>0.10197989862822</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N4">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O4">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P4">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q4">
-        <v>80.90910753299481</v>
+        <v>40.91355665255611</v>
       </c>
       <c r="R4">
-        <v>80.90910753299481</v>
+        <v>368.222009873005</v>
       </c>
       <c r="S4">
-        <v>0.125483662426097</v>
+        <v>0.04377653945410664</v>
       </c>
       <c r="T4">
-        <v>0.125483662426097</v>
+        <v>0.04377653945410665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.50139523998359</v>
+        <v>1.614534333333333</v>
       </c>
       <c r="H5">
-        <v>3.50139523998359</v>
+        <v>4.843603</v>
       </c>
       <c r="I5">
-        <v>0.2897148144989093</v>
+        <v>0.10197989862822</v>
       </c>
       <c r="J5">
-        <v>0.2897148144989093</v>
+        <v>0.10197989862822</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N5">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O5">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P5">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q5">
-        <v>62.04833160670458</v>
+        <v>32.07953517566278</v>
       </c>
       <c r="R5">
-        <v>62.04833160670458</v>
+        <v>288.7158165809651</v>
       </c>
       <c r="S5">
-        <v>0.09623208233094255</v>
+        <v>0.03432434508719414</v>
       </c>
       <c r="T5">
-        <v>0.09623208233094255</v>
+        <v>0.03432434508719415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.58426646854727</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H6">
-        <v>8.58426646854727</v>
+        <v>12.47932</v>
       </c>
       <c r="I6">
-        <v>0.7102851855010905</v>
+        <v>0.2627465109236077</v>
       </c>
       <c r="J6">
-        <v>0.7102851855010905</v>
+        <v>0.2627465109236077</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N6">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O6">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P6">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q6">
-        <v>18.77262631653031</v>
+        <v>14.30507640759556</v>
       </c>
       <c r="R6">
-        <v>18.77262631653031</v>
+        <v>128.74568766836</v>
       </c>
       <c r="S6">
-        <v>0.029114866983227</v>
+        <v>0.01530609394507365</v>
       </c>
       <c r="T6">
-        <v>0.029114866983227</v>
+        <v>0.01530609394507366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.58426646854727</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H7">
-        <v>8.58426646854727</v>
+        <v>12.47932</v>
       </c>
       <c r="I7">
-        <v>0.7102851855010905</v>
+        <v>0.2627465109236077</v>
       </c>
       <c r="J7">
-        <v>0.7102851855010905</v>
+        <v>0.2627465109236077</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N7">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O7">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P7">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q7">
-        <v>88.71915247030012</v>
+        <v>43.19449144574667</v>
       </c>
       <c r="R7">
-        <v>88.71915247030012</v>
+        <v>388.75042301172</v>
       </c>
       <c r="S7">
-        <v>0.1375964278776972</v>
+        <v>0.04621708581907569</v>
       </c>
       <c r="T7">
-        <v>0.1375964278776972</v>
+        <v>0.04621708581907571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.58426646854727</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H8">
-        <v>8.58426646854727</v>
+        <v>12.47932</v>
       </c>
       <c r="I8">
-        <v>0.7102851855010905</v>
+        <v>0.2627465109236077</v>
       </c>
       <c r="J8">
-        <v>0.7102851855010905</v>
+        <v>0.2627465109236077</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N8">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O8">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P8">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q8">
-        <v>198.3624501639603</v>
+        <v>105.4118939569111</v>
       </c>
       <c r="R8">
-        <v>198.3624501639603</v>
+        <v>948.7070456122001</v>
       </c>
       <c r="S8">
-        <v>0.3076445593499743</v>
+        <v>0.1127882372565262</v>
       </c>
       <c r="T8">
-        <v>0.3076445593499743</v>
+        <v>0.1127882372565262</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.159773333333334</v>
+      </c>
+      <c r="H9">
+        <v>12.47932</v>
+      </c>
+      <c r="I9">
+        <v>0.2627465109236077</v>
+      </c>
+      <c r="J9">
+        <v>0.2627465109236077</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.86921833333334</v>
+      </c>
+      <c r="N9">
+        <v>59.60765500000001</v>
+      </c>
+      <c r="O9">
+        <v>0.336579517619719</v>
+      </c>
+      <c r="P9">
+        <v>0.336579517619719</v>
+      </c>
+      <c r="Q9">
+        <v>82.6514445771778</v>
+      </c>
+      <c r="R9">
+        <v>743.8630011946002</v>
+      </c>
+      <c r="S9">
+        <v>0.0884350939029321</v>
+      </c>
+      <c r="T9">
+        <v>0.08843509390293214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.691843666666667</v>
+      </c>
+      <c r="H10">
+        <v>29.075531</v>
+      </c>
+      <c r="I10">
+        <v>0.6121723237725448</v>
+      </c>
+      <c r="J10">
+        <v>0.6121723237725448</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.438907666666667</v>
+      </c>
+      <c r="N10">
+        <v>10.316723</v>
+      </c>
+      <c r="O10">
+        <v>0.05825422340060618</v>
+      </c>
+      <c r="P10">
+        <v>0.05825422340060618</v>
+      </c>
+      <c r="Q10">
+        <v>33.32935548943478</v>
+      </c>
+      <c r="R10">
+        <v>299.964199404913</v>
+      </c>
+      <c r="S10">
+        <v>0.03566162330871404</v>
+      </c>
+      <c r="T10">
+        <v>0.03566162330871404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.691843666666667</v>
+      </c>
+      <c r="H11">
+        <v>29.075531</v>
+      </c>
+      <c r="I11">
+        <v>0.6121723237725448</v>
+      </c>
+      <c r="J11">
+        <v>0.6121723237725448</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.383857</v>
+      </c>
+      <c r="N11">
+        <v>31.151571</v>
+      </c>
+      <c r="O11">
+        <v>0.1758999031294962</v>
+      </c>
+      <c r="P11">
+        <v>0.1758999031294962</v>
+      </c>
+      <c r="Q11">
+        <v>100.6387187010223</v>
+      </c>
+      <c r="R11">
+        <v>905.748468309201</v>
+      </c>
+      <c r="S11">
+        <v>0.1076810524501492</v>
+      </c>
+      <c r="T11">
+        <v>0.1076810524501492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>9.691843666666667</v>
+      </c>
+      <c r="H12">
+        <v>29.075531</v>
+      </c>
+      <c r="I12">
+        <v>0.6121723237725448</v>
+      </c>
+      <c r="J12">
+        <v>0.6121723237725448</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>25.34077833333333</v>
+      </c>
+      <c r="N12">
+        <v>76.022335</v>
+      </c>
+      <c r="O12">
+        <v>0.4292663558501786</v>
+      </c>
+      <c r="P12">
+        <v>0.4292663558501786</v>
+      </c>
+      <c r="Q12">
+        <v>245.5988619983206</v>
+      </c>
+      <c r="R12">
+        <v>2210.389757984885</v>
+      </c>
+      <c r="S12">
+        <v>0.262784982578176</v>
+      </c>
+      <c r="T12">
+        <v>0.262784982578176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.691843666666667</v>
+      </c>
+      <c r="H13">
+        <v>29.075531</v>
+      </c>
+      <c r="I13">
+        <v>0.6121723237725448</v>
+      </c>
+      <c r="J13">
+        <v>0.6121723237725448</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.86921833333334</v>
+      </c>
+      <c r="N13">
+        <v>59.60765500000001</v>
+      </c>
+      <c r="O13">
+        <v>0.336579517619719</v>
+      </c>
+      <c r="P13">
+        <v>0.336579517619719</v>
+      </c>
+      <c r="Q13">
+        <v>192.5693578655339</v>
+      </c>
+      <c r="R13">
+        <v>1733.124220789805</v>
+      </c>
+      <c r="S13">
+        <v>0.2060446654355056</v>
+      </c>
+      <c r="T13">
+        <v>0.2060446654355056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>8.58426646854727</v>
-      </c>
-      <c r="H9">
-        <v>8.58426646854727</v>
-      </c>
-      <c r="I9">
-        <v>0.7102851855010905</v>
-      </c>
-      <c r="J9">
-        <v>0.7102851855010905</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>17.7210304332839</v>
-      </c>
-      <c r="N9">
-        <v>17.7210304332839</v>
-      </c>
-      <c r="O9">
-        <v>0.3321614136211347</v>
-      </c>
-      <c r="P9">
-        <v>0.3321614136211347</v>
-      </c>
-      <c r="Q9">
-        <v>152.1220473365447</v>
-      </c>
-      <c r="R9">
-        <v>152.1220473365447</v>
-      </c>
-      <c r="S9">
-        <v>0.2359293312901921</v>
-      </c>
-      <c r="T9">
-        <v>0.2359293312901921</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3657366666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.09721</v>
+      </c>
+      <c r="I14">
+        <v>0.02310126667562748</v>
+      </c>
+      <c r="J14">
+        <v>0.02310126667562749</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.438907666666667</v>
+      </c>
+      <c r="N14">
+        <v>10.316723</v>
+      </c>
+      <c r="O14">
+        <v>0.05825422340060618</v>
+      </c>
+      <c r="P14">
+        <v>0.05825422340060618</v>
+      </c>
+      <c r="Q14">
+        <v>1.257734626981111</v>
+      </c>
+      <c r="R14">
+        <v>11.31961164283</v>
+      </c>
+      <c r="S14">
+        <v>0.001345746349758982</v>
+      </c>
+      <c r="T14">
+        <v>0.001345746349758983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3657366666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.09721</v>
+      </c>
+      <c r="I15">
+        <v>0.02310126667562748</v>
+      </c>
+      <c r="J15">
+        <v>0.02310126667562749</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.383857</v>
+      </c>
+      <c r="N15">
+        <v>31.151571</v>
+      </c>
+      <c r="O15">
+        <v>0.1758999031294962</v>
+      </c>
+      <c r="P15">
+        <v>0.1758999031294962</v>
+      </c>
+      <c r="Q15">
+        <v>3.797757246323334</v>
+      </c>
+      <c r="R15">
+        <v>34.17981521691</v>
+      </c>
+      <c r="S15">
+        <v>0.004063510570411532</v>
+      </c>
+      <c r="T15">
+        <v>0.004063510570411532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3657366666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.09721</v>
+      </c>
+      <c r="I16">
+        <v>0.02310126667562748</v>
+      </c>
+      <c r="J16">
+        <v>0.02310126667562749</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>25.34077833333333</v>
+      </c>
+      <c r="N16">
+        <v>76.022335</v>
+      </c>
+      <c r="O16">
+        <v>0.4292663558501786</v>
+      </c>
+      <c r="P16">
+        <v>0.4292663558501786</v>
+      </c>
+      <c r="Q16">
+        <v>9.268051798372221</v>
+      </c>
+      <c r="R16">
+        <v>83.41246618535</v>
+      </c>
+      <c r="S16">
+        <v>0.009916596561369779</v>
+      </c>
+      <c r="T16">
+        <v>0.009916596561369782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.3657366666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.09721</v>
+      </c>
+      <c r="I17">
+        <v>0.02310126667562748</v>
+      </c>
+      <c r="J17">
+        <v>0.02310126667562749</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.86921833333334</v>
+      </c>
+      <c r="N17">
+        <v>59.60765500000001</v>
+      </c>
+      <c r="O17">
+        <v>0.336579517619719</v>
+      </c>
+      <c r="P17">
+        <v>0.336579517619719</v>
+      </c>
+      <c r="Q17">
+        <v>7.266901682505556</v>
+      </c>
+      <c r="R17">
+        <v>65.40211514255002</v>
+      </c>
+      <c r="S17">
+        <v>0.007775413194087187</v>
+      </c>
+      <c r="T17">
+        <v>0.00777541319408719</v>
       </c>
     </row>
   </sheetData>
